--- a/financial_models/opportunities/9959.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/9959.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C92E73-6957-46A7-98B1-4F0C25739ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E974632-7FD7-49AB-ABEC-F1DF4819955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5243903008122703E-2</v>
+        <v>6.2049576772201034E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4968,7 +4968,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>1.6399999856948899</v>
+        <v>1.73</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>3747.3736420330529</v>
+        <v>3953.0222300400001</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -5111,7 +5111,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0734576781590779</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.41284014982501793</v>
+        <v>0.43409325404310661</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-4.1982390876466637E-2</v>
+        <v>-3.9926942835494604E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5243903008122703E-2</v>
+        <v>6.2049576772201034E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5356,20 +5356,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.86144249363847669</v>
+        <v>0.85134601063259385</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.6558480488764975</v>
+        <v>1.6364407851191773</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.0134617572217373</v>
+        <v>1.0015835419206987</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.4398678685882589</v>
+        <v>1.4229919870601544</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -10374,8 +10374,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10468,11 +10468,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>6259920.6705000009</v>
+        <v>6280149.4471167745</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.26208296455678259</v>
+        <v>0.25969840416737744</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10493,7 +10493,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>2.9313620007255303</v>
+        <v>2.9503378568128085</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -12244,17 +12244,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1982390876466637E-2</v>
+        <v>-3.9926942835494604E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1982390876466637E-2</v>
+        <v>-3.9926942835494604E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-4.1982390876466637E-2</v>
+        <v>-3.9926942835494604E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12295,17 +12295,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5243903008122703E-2</v>
+        <v>6.2049576772201034E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5243903008122703E-2</v>
+        <v>6.2049576772201034E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5243903008122703E-2</v>
+        <v>6.2049576772201034E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12365,14 +12365,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-0.77169551249374657</v>
+        <v>-0.78253014255373488</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-0.77169551249374657</v>
+        <v>-0.78253014255373488</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12390,14 +12390,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.0384335896443204</v>
+        <v>2.0145422559239043</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.0384335896443204</v>
+        <v>2.0145422559239043</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12440,21 +12440,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-876677.63326688821</v>
+        <v>-888986.2157123381</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.38366905554598157</v>
+        <v>-0.3890557815473713</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.38366905554598157</v>
+        <v>-0.3890557815473713</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-0.54509481124051429</v>
+        <v>-0.55274796009494409</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12482,17 +12482,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>5056373.2750000004</v>
+        <v>5072712.8183991704</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.8809398147028034</v>
+        <v>1.8870180245306891</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>2.2128703702385923</v>
+        <v>2.2200212053302226</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>4179695.6417331123</v>
+        <v>4183726.6026868322</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4137506313860089</v>
+        <v>1.4147942583756217</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>1.4972707591568217</v>
+        <v>1.4979622429833177</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>1.6632360369247163</v>
+        <v>1.6644638333830843</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>1.8292013146926109</v>
+        <v>1.8309654237828512</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.6677755589980781</v>
+        <v>1.6672732452352785</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2315743.8471635426</v>
+        <v>2288602.3158697817</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.86144249363847669</v>
+        <v>0.85134601063259385</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.0134617572217373</v>
+        <v>1.0015835419206987</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.0134617572217373</v>
+        <v>1.0015835419206987</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.0134617572217373</v>
+        <v>1.0015835419206987</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.4398678685882589</v>
+        <v>1.4229919870601544</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12625,27 +12625,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2868491.748823327</v>
+        <v>2855710.9978983686</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1375965625122428</v>
+        <v>1.1330701345041079</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2553662581892795</v>
+        <v>1.2497728924520082</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3383488970732267</v>
+        <v>1.3330236876518915</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.4213315359571741</v>
+        <v>1.416274482851775</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5538217137931685</v>
+        <v>1.5451326161477166</v>
       </c>
       <c r="K106" s="24"/>
     </row>
